--- a/Lens.xlsx
+++ b/Lens.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/45fb04caaa453194/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="8_{89BF9451-EAAE-46FA-B2DD-EDA7E26498B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{087EE6B8-5E15-41E9-B8B8-E170BA41F4F6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C71F6E-5144-4EB0-A975-807D3A1B7DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{3C28A6A4-6576-44DD-9668-A9F0D2E03BA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3C28A6A4-6576-44DD-9668-A9F0D2E03BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="lens' law" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>d (cm)</t>
   </si>
@@ -2601,8 +2601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F268923-2920-4514-8572-E0906C6DCCF4}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2638,6 +2638,12 @@
       <c r="H1" t="s">
         <v>11</v>
       </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
       <c r="N1" t="s">
         <v>3</v>
       </c>
@@ -2667,6 +2673,12 @@
       <c r="H2">
         <v>1.19</v>
       </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>23.2</v>
+      </c>
       <c r="L2">
         <f>1/M2</f>
         <v>5.0162162162162165</v>
@@ -2692,6 +2704,12 @@
       <c r="F3">
         <v>888</v>
       </c>
+      <c r="I3">
+        <v>7.7</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
       <c r="L3">
         <f>1/M3</f>
         <v>4.9423255813953491</v>
@@ -2717,6 +2735,12 @@
       <c r="F4">
         <v>888</v>
       </c>
+      <c r="I4">
+        <v>6.5</v>
+      </c>
+      <c r="J4">
+        <v>13.8</v>
+      </c>
       <c r="L4">
         <f>1/M4</f>
         <v>4.8825910931174095</v>
@@ -2735,6 +2759,12 @@
       </c>
       <c r="B5">
         <v>444</v>
+      </c>
+      <c r="I5">
+        <v>10.6</v>
+      </c>
+      <c r="J5">
+        <v>8.8000000000000007</v>
       </c>
       <c r="L5">
         <f>1/M5</f>
@@ -2822,7 +2852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3241F316-C397-45B7-8B8B-9BB3FB7ED77F}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
